--- a/fuentes/contenidos/grado08/guion05/Copia de Escaleta matemática 8 tema 5.xlsx
+++ b/fuentes/contenidos/grado08/guion05/Copia de Escaleta matemática 8 tema 5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,175 +22,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Edgar Josué Malagón Montaña</author>
-  </authors>
-  <commentList>
-    <comment ref="G9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Edgar Josué Malagón Montaña
-La palabra "obtiene" no se puede cambiar?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J17" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Edgar Josué Malagón Montaña:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-adición y no suma</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Edgar Josué Malagón Montaña:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Adiciones y sustracciones</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Edgar Josué Malagón Montaña:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-adición (no suma) la adición se utiliza cuando se habla de la operación y suma cuando se habla del resultado.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Edgar Josué Malagón Montaña:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-adiciones y sustracciones</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Edgar Josué Malagón Montaña:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-adiciones y sustracciones</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Edgar Josué Malagón Montaña:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-adición y sustracción</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="279">
   <si>
@@ -747,9 +578,6 @@
     <t>Varias opciones. Simplificar fracciones algebraicas con monomios; con polinomios; dar una simplificación equivocada y pedir al estudiante que lo identifique y explique. Dar rectángulos u otras figuras geométricas y pedir de dada el área, expresen mediante un cociente uno de los lados.  Dar un valor numérico y calcular el área finalmente.</t>
   </si>
   <si>
-    <t>Suma o resta fracciones algebraicas  con diferente denominador</t>
-  </si>
-  <si>
     <t>La actividad se debe construir dando una fracción algebraica en la izquierda y en la derecha los valores numéricos que deben descartarse en el denominador. Deben proponerse fracciones que tengan dos valores para descartar y en la derecha proponer una por espacio.</t>
   </si>
   <si>
@@ -1030,13 +858,16 @@
   </si>
   <si>
     <t>Actividad que permite evaluar los concoimientos del estudiante sobre el tema Las fracciones algebraicas</t>
+  </si>
+  <si>
+    <t>Adiciones y sustracciones de expresiones racionales con diferente denominador</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1087,19 +918,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1340,28 +1158,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1401,6 +1207,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1706,12 +1524,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="47.42578125" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1742,95 +1560,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="6" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="52"/>
+      <c r="O1" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="55" t="s">
         <v>90</v>
       </c>
       <c r="V1" s="36"/>
     </row>
     <row r="2" spans="1:22" s="6" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="51"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="47"/>
       <c r="M2" s="7" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="40"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="55"/>
       <c r="V2" s="36"/>
     </row>
     <row r="3" spans="1:22" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -1880,16 +1698,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="S3" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="T3" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="T3" s="32" t="s">
+      <c r="U3" s="34" t="s">
         <v>226</v>
-      </c>
-      <c r="U3" s="34" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1921,7 +1739,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>20</v>
@@ -1943,16 +1761,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S4" s="30" t="s">
+      <c r="T4" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="T4" s="32" t="s">
+      <c r="U4" s="34" t="s">
         <v>230</v>
-      </c>
-      <c r="U4" s="34" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1984,7 +1802,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>20</v>
@@ -2006,16 +1824,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S5" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S5" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T5" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U5" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2045,7 +1863,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>20</v>
@@ -2058,7 +1876,7 @@
         <v>22</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>19</v>
@@ -2067,16 +1885,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S6" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S6" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T6" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U6" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2106,7 +1924,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>20</v>
@@ -2128,16 +1946,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S7" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S7" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T7" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U7" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2167,7 +1985,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>20</v>
@@ -2189,16 +2007,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S8" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S8" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T8" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U8" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2226,7 +2044,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>20</v>
@@ -2248,16 +2066,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S9" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S9" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T9" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U9" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2287,7 +2105,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>20</v>
@@ -2309,16 +2127,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S10" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S10" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T10" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U10" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2348,7 +2166,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>20</v>
@@ -2370,16 +2188,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S11" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S11" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T11" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U11" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2409,7 +2227,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>20</v>
@@ -2431,16 +2249,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S12" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S12" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T12" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U12" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2470,7 +2288,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>20</v>
@@ -2492,16 +2310,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S13" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S13" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T13" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U13" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2522,7 +2340,7 @@
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H14" s="27">
         <v>12</v>
@@ -2531,7 +2349,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>20</v>
@@ -2544,7 +2362,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P14" s="27" t="s">
         <v>19</v>
@@ -2553,16 +2371,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S14" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S14" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T14" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U14" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2614,16 +2432,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="S15" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="S15" s="30" t="s">
-        <v>225</v>
-      </c>
       <c r="T15" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U15" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2675,16 +2493,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S16" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S16" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T16" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U16" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2707,7 +2525,7 @@
         <v>165</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H17" s="27">
         <v>15</v>
@@ -2716,7 +2534,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>20</v>
@@ -2729,7 +2547,7 @@
         <v>39</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P17" s="27" t="s">
         <v>19</v>
@@ -2738,16 +2556,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S17" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S17" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T17" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U17" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2768,7 +2586,7 @@
         <v>166</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="H18" s="27">
         <v>16</v>
@@ -2777,7 +2595,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>20</v>
@@ -2790,7 +2608,7 @@
         <v>39</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P18" s="27" t="s">
         <v>19</v>
@@ -2799,16 +2617,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S18" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S18" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T18" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U18" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2836,7 +2654,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>20</v>
@@ -2849,7 +2667,7 @@
         <v>29</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P19" s="27" t="s">
         <v>20</v>
@@ -2858,16 +2676,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S19" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S19" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T19" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U19" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2895,7 +2713,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>20</v>
@@ -2908,7 +2726,7 @@
         <v>39</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P20" s="27" t="s">
         <v>20</v>
@@ -2917,16 +2735,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S20" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S20" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T20" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U20" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2954,7 +2772,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>20</v>
@@ -2967,7 +2785,7 @@
       </c>
       <c r="N21" s="18"/>
       <c r="O21" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P21" s="27" t="s">
         <v>19</v>
@@ -2976,16 +2794,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S21" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="T21" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="T21" s="32" t="s">
+      <c r="U21" s="34" t="s">
         <v>249</v>
-      </c>
-      <c r="U21" s="34" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3013,7 +2831,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>20</v>
@@ -3026,7 +2844,7 @@
         <v>121</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P22" s="27" t="s">
         <v>19</v>
@@ -3035,16 +2853,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S22" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S22" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T22" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U22" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3074,7 +2892,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>20</v>
@@ -3087,7 +2905,7 @@
         <v>39</v>
       </c>
       <c r="O23" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P23" s="27" t="s">
         <v>19</v>
@@ -3096,16 +2914,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S23" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S23" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T23" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U23" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3135,7 +2953,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K24" s="16" t="s">
         <v>20</v>
@@ -3148,7 +2966,7 @@
         <v>40</v>
       </c>
       <c r="O24" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>20</v>
@@ -3157,16 +2975,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S24" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S24" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T24" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U24" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3196,7 +3014,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K25" s="16" t="s">
         <v>20</v>
@@ -3209,7 +3027,7 @@
         <v>39</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P25" s="27" t="s">
         <v>19</v>
@@ -3218,16 +3036,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S25" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S25" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T25" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U25" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3257,7 +3075,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K26" s="16" t="s">
         <v>20</v>
@@ -3270,7 +3088,7 @@
         <v>33</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P26" s="27" t="s">
         <v>19</v>
@@ -3279,16 +3097,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S26" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S26" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T26" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U26" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3318,7 +3136,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K27" s="16" t="s">
         <v>20</v>
@@ -3331,7 +3149,7 @@
         <v>39</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P27" s="27" t="s">
         <v>19</v>
@@ -3340,16 +3158,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S27" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S27" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T27" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U27" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3379,7 +3197,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K28" s="16" t="s">
         <v>20</v>
@@ -3392,7 +3210,7 @@
       </c>
       <c r="N28" s="18"/>
       <c r="O28" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P28" s="27" t="s">
         <v>19</v>
@@ -3401,16 +3219,16 @@
         <v>6</v>
       </c>
       <c r="R28" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="S28" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="S28" s="30" t="s">
-        <v>225</v>
-      </c>
       <c r="T28" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U28" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3440,7 +3258,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K29" s="16" t="s">
         <v>20</v>
@@ -3453,7 +3271,7 @@
         <v>39</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P29" s="27" t="s">
         <v>19</v>
@@ -3462,16 +3280,16 @@
         <v>6</v>
       </c>
       <c r="R29" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S29" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S29" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T29" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U29" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3495,7 +3313,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K30" s="16" t="s">
         <v>20</v>
@@ -3508,7 +3326,7 @@
         <v>52</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P30" s="27" t="s">
         <v>19</v>
@@ -3517,16 +3335,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S30" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S30" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T30" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U30" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3554,7 +3372,7 @@
         <v>19</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K31" s="16" t="s">
         <v>20</v>
@@ -3567,7 +3385,7 @@
       </c>
       <c r="N31" s="18"/>
       <c r="O31" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P31" s="27" t="s">
         <v>19</v>
@@ -3576,16 +3394,16 @@
         <v>6</v>
       </c>
       <c r="R31" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S31" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T31" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U31" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3613,7 +3431,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K32" s="16" t="s">
         <v>20</v>
@@ -3626,7 +3444,7 @@
         <v>39</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P32" s="27" t="s">
         <v>19</v>
@@ -3635,16 +3453,16 @@
         <v>6</v>
       </c>
       <c r="R32" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S32" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S32" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T32" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="U32" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3674,7 +3492,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K33" s="16" t="s">
         <v>20</v>
@@ -3687,7 +3505,7 @@
         <v>52</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P33" s="27" t="s">
         <v>19</v>
@@ -3696,16 +3514,16 @@
         <v>6</v>
       </c>
       <c r="R33" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S33" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S33" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T33" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U33" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3724,7 +3542,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="13"/>
       <c r="G34" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H34" s="27">
         <v>32</v>
@@ -3733,7 +3551,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K34" s="16" t="s">
         <v>20</v>
@@ -3751,16 +3569,16 @@
         <v>6</v>
       </c>
       <c r="R34" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S34" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S34" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T34" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U34" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3786,7 +3604,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K35" s="16" t="s">
         <v>20</v>
@@ -3825,7 +3643,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K36" s="16" t="s">
         <v>20</v>
@@ -3843,16 +3661,16 @@
         <v>6</v>
       </c>
       <c r="R36" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S36" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="S36" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="T36" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U36" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4787,6 +4605,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4801,16 +4625,9 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
